--- a/medicine/Enfance/Mercè_Company/Mercè_Company.xlsx
+++ b/medicine/Enfance/Mercè_Company/Mercè_Company.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Merc%C3%A8_Company</t>
+          <t>Mercè_Company</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mercè Company i González (Barcelone, 19 mai 1947) est une romancière espagnole d'expression espagnole, catalane et française.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Merc%C3%A8_Company</t>
+          <t>Mercè_Company</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Parcours</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle étudie le journalisme et travaille pour diverses publications et maisons d'éditions. Sa bibliographie comprend plus de 170 livres. Elle a obtenu plusieurs prix pour ses travaux de littérature d'enfance et de jeunesse : le Prix Ville d'Olot en 1982, le Prix de la critique Serra d'Or en  1983 ou la Médaille d'Honneur de Barcelone en 1999.
 De plus, elle a participé à la réalisation des livres et de la série télévisée Les Trois Petites Sœurs (Las Tres Mellizas en espagnol, Les Tres Bessones en catalan) de la maison de productions barcelonaise Cromosoma.
